--- a/input_files/user_defined/load_mine_data.xlsx
+++ b/input_files/user_defined/load_mine_data.xlsx
@@ -1,20 +1,48 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johnryter/Dropbox (MIT)/John MIT/Research/generalizationOutside/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://doimspp-my.sharepoint.com/personal/jryter_usgs_gov/Documents/Documents/generalizationOutside/generalization/input_files/user_defined/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08965EAE-0F80-CB42-8FB3-53E35D1E1084}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="26" documentId="13_ncr:1_{08965EAE-0F80-CB42-8FB3-53E35D1E1084}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2AF2EA5D-7791-4CF7-B2D3-18CCB2C414B9}"/>
   <bookViews>
-    <workbookView xWindow="620" yWindow="1980" windowWidth="26840" windowHeight="14760" xr2:uid="{153B4097-E1EC-104F-847A-470FA602405D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{153B4097-E1EC-104F-847A-470FA602405D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="IQ_CH">110000</definedName>
+    <definedName name="IQ_CQ">5000</definedName>
+    <definedName name="IQ_CY">10000</definedName>
+    <definedName name="IQ_DAILY">500000</definedName>
+    <definedName name="IQ_FH">100000</definedName>
+    <definedName name="IQ_FQ">500</definedName>
+    <definedName name="IQ_FWD_CY" hidden="1">10001</definedName>
+    <definedName name="IQ_FWD_CY1" hidden="1">10002</definedName>
+    <definedName name="IQ_FWD_CY2" hidden="1">10003</definedName>
+    <definedName name="IQ_FWD_FY" hidden="1">1001</definedName>
+    <definedName name="IQ_FWD_FY1" hidden="1">1002</definedName>
+    <definedName name="IQ_FWD_FY2" hidden="1">1003</definedName>
+    <definedName name="IQ_FWD_Q" hidden="1">501</definedName>
+    <definedName name="IQ_FWD_Q1" hidden="1">502</definedName>
+    <definedName name="IQ_FWD_Q2" hidden="1">503</definedName>
+    <definedName name="IQ_FY">1000</definedName>
+    <definedName name="IQ_LATESTK" hidden="1">1000</definedName>
+    <definedName name="IQ_LATESTQ" hidden="1">500</definedName>
+    <definedName name="IQ_LTM">2000</definedName>
+    <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
+    <definedName name="IQ_MONTH">15000</definedName>
+    <definedName name="IQ_NTM">6000</definedName>
+    <definedName name="IQ_TODAY" hidden="1">0</definedName>
+    <definedName name="IQ_WEEK">50000</definedName>
+    <definedName name="IQ_YTD">3000</definedName>
+    <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -566,9 +594,9 @@
       <selection activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -582,7 +610,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -596,7 +624,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -608,10 +636,10 @@
       </c>
       <c r="D3">
         <f ca="1">RANDBETWEEN(1,13)/10</f>
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -623,10 +651,10 @@
       </c>
       <c r="D4">
         <f t="shared" ref="D4:D53" ca="1" si="0">RANDBETWEEN(1,13)/10</f>
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -638,10 +666,10 @@
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -653,10 +681,10 @@
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -668,10 +696,10 @@
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -683,10 +711,10 @@
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -698,10 +726,10 @@
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -713,10 +741,10 @@
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="0"/>
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -728,10 +756,10 @@
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -743,10 +771,10 @@
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -758,10 +786,10 @@
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -773,10 +801,10 @@
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -788,10 +816,10 @@
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="0"/>
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -803,10 +831,10 @@
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -818,10 +846,10 @@
       </c>
       <c r="D17">
         <f t="shared" ca="1" si="0"/>
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -833,10 +861,10 @@
       </c>
       <c r="D18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -848,10 +876,10 @@
       </c>
       <c r="D19">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>22</v>
       </c>
@@ -864,10 +892,10 @@
       </c>
       <c r="D20">
         <f t="shared" ca="1" si="0"/>
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -880,10 +908,10 @@
       </c>
       <c r="D21">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>24</v>
       </c>
@@ -896,10 +924,10 @@
       </c>
       <c r="D22">
         <f t="shared" ca="1" si="0"/>
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>25</v>
       </c>
@@ -912,10 +940,10 @@
       </c>
       <c r="D23">
         <f t="shared" ca="1" si="0"/>
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>26</v>
       </c>
@@ -928,10 +956,10 @@
       </c>
       <c r="D24">
         <f t="shared" ca="1" si="0"/>
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>27</v>
       </c>
@@ -944,10 +972,10 @@
       </c>
       <c r="D25">
         <f t="shared" ca="1" si="0"/>
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>28</v>
       </c>
@@ -960,10 +988,10 @@
       </c>
       <c r="D26">
         <f t="shared" ca="1" si="0"/>
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>29</v>
       </c>
@@ -976,10 +1004,10 @@
       </c>
       <c r="D27">
         <f t="shared" ca="1" si="0"/>
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>30</v>
       </c>
@@ -992,10 +1020,10 @@
       </c>
       <c r="D28">
         <f t="shared" ca="1" si="0"/>
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>31</v>
       </c>
@@ -1008,10 +1036,10 @@
       </c>
       <c r="D29">
         <f t="shared" ca="1" si="0"/>
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>32</v>
       </c>
@@ -1024,10 +1052,10 @@
       </c>
       <c r="D30">
         <f t="shared" ca="1" si="0"/>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>33</v>
       </c>
@@ -1040,10 +1068,10 @@
       </c>
       <c r="D31">
         <f t="shared" ca="1" si="0"/>
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>34</v>
       </c>
@@ -1056,10 +1084,10 @@
       </c>
       <c r="D32">
         <f t="shared" ca="1" si="0"/>
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>35</v>
       </c>
@@ -1072,10 +1100,10 @@
       </c>
       <c r="D33">
         <f t="shared" ca="1" si="0"/>
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>36</v>
       </c>
@@ -1088,10 +1116,10 @@
       </c>
       <c r="D34">
         <f t="shared" ca="1" si="0"/>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>37</v>
       </c>
@@ -1104,10 +1132,10 @@
       </c>
       <c r="D35">
         <f t="shared" ca="1" si="0"/>
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>38</v>
       </c>
@@ -1122,7 +1150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>39</v>
       </c>
@@ -1134,10 +1162,10 @@
       </c>
       <c r="D37">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>40</v>
       </c>
@@ -1149,10 +1177,10 @@
       </c>
       <c r="D38">
         <f t="shared" ca="1" si="0"/>
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>41</v>
       </c>
@@ -1164,10 +1192,10 @@
       </c>
       <c r="D39">
         <f t="shared" ca="1" si="0"/>
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>42</v>
       </c>
@@ -1179,10 +1207,10 @@
       </c>
       <c r="D40">
         <f t="shared" ca="1" si="0"/>
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>43</v>
       </c>
@@ -1197,7 +1225,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>44</v>
       </c>
@@ -1209,10 +1237,10 @@
       </c>
       <c r="D42">
         <f t="shared" ca="1" si="0"/>
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>45</v>
       </c>
@@ -1224,10 +1252,10 @@
       </c>
       <c r="D43">
         <f t="shared" ca="1" si="0"/>
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>46</v>
       </c>
@@ -1239,10 +1267,10 @@
       </c>
       <c r="D44">
         <f t="shared" ca="1" si="0"/>
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>47</v>
       </c>
@@ -1254,10 +1282,10 @@
       </c>
       <c r="D45">
         <f t="shared" ca="1" si="0"/>
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>48</v>
       </c>
@@ -1269,10 +1297,10 @@
       </c>
       <c r="D46">
         <f t="shared" ca="1" si="0"/>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>49</v>
       </c>
@@ -1284,10 +1312,10 @@
       </c>
       <c r="D47">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>50</v>
       </c>
@@ -1299,10 +1327,10 @@
       </c>
       <c r="D48">
         <f t="shared" ca="1" si="0"/>
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>51</v>
       </c>
@@ -1314,10 +1342,10 @@
       </c>
       <c r="D49">
         <f t="shared" ca="1" si="0"/>
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>52</v>
       </c>
@@ -1329,10 +1357,10 @@
       </c>
       <c r="D50">
         <f t="shared" ca="1" si="0"/>
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>53</v>
       </c>
@@ -1348,7 +1376,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>54</v>
       </c>
@@ -1360,10 +1388,10 @@
       </c>
       <c r="D52">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>55</v>
       </c>
@@ -1376,7 +1404,7 @@
       </c>
       <c r="D53">
         <f t="shared" ca="1" si="0"/>
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
     </row>
   </sheetData>
